--- a/biology/Zoologie/Butor_d'Amérique/Butor_d'Amérique.xlsx
+++ b/biology/Zoologie/Butor_d'Amérique/Butor_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Butor_d%27Am%C3%A9rique</t>
+          <t>Butor_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Botaurus lentiginosus
 Le Butor d'Amérique (Botaurus lentiginosus) est une espèce néarctique d'oiseaux échassiers appartenant à la famille des Ardeidae. Elle est présente dans toute l'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Butor_d%27Am%C3%A9rique</t>
+          <t>Butor_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le Butor étoilé, s'il se sent menacé, il devient immobile, allonge son cou et pointe son bec vers le haut, de manière à se fondre dans les roseaux environnants. Il est capable de rester dans cette position et de s'incliner avec les roseaux agités par le vent pendant plusieurs heures, jusqu'à ce qu'il n'y ait plus de risque.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Butor_d%27Am%C3%A9rique</t>
+          <t>Butor_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
